--- a/Document/캐릭터_애니메이션_정보.xlsx
+++ b/Document/캐릭터_애니메이션_정보.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="12075"/>
   </bookViews>
   <sheets>
-    <sheet name="리퍼" sheetId="2" r:id="rId1"/>
-    <sheet name="절단 로봇" sheetId="1" r:id="rId2"/>
+    <sheet name="디바(메카탑승)" sheetId="3" r:id="rId1"/>
+    <sheet name="리퍼" sheetId="2" r:id="rId2"/>
+    <sheet name="절단 로봇" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">리퍼!$A$2:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'절단 로봇'!$A$4:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">리퍼!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'절단 로봇'!$A$4:$D$14</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>절단 로봇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +333,13 @@
   <si>
     <t>idle</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰 디바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000004608.00C</t>
   </si>
 </sst>
 </file>
@@ -399,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +421,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,13 +706,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -986,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
